--- a/LF/PreTAS/Burkina Faso/2024/bf_lf_pretas_202404_1_village.xlsx
+++ b/LF/PreTAS/Burkina Faso/2024/bf_lf_pretas_202404_1_village.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\LF\PreTAS\Burkina Faso\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2FAD705-7E1B-4697-BD40-9CAFE3CBE1CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A713C5A-013B-44A5-80D3-FF08345CEAF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -392,13 +392,13 @@
     <t>c_couverture_tdm_2024</t>
   </si>
   <si>
-    <t>Couverture thérapeutique  TDM FL 2024</t>
-  </si>
-  <si>
-    <t>(BF - Apr 2024) Pré TAS FL - 1. Formulaire Village V1</t>
-  </si>
-  <si>
-    <t>bf_lf_pretas_202404_1_village_v1</t>
+    <t>bf_lf_pretas_202404_1_village_v2</t>
+  </si>
+  <si>
+    <t>(BF - Apr 2024) Pré TAS FL - 1. Formulaire Village V2</t>
+  </si>
+  <si>
+    <t>Couverture thérapeutique  TDM FL 2023</t>
   </si>
 </sst>
 </file>
@@ -1097,11 +1097,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.75"/>
@@ -1379,7 +1379,7 @@
         <v>116</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D11" s="16" t="s">
         <v>46</v>
@@ -2159,8 +2159,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.75"/>
@@ -2186,7 +2186,7 @@
         <v>118</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>16</v>

--- a/LF/PreTAS/Burkina Faso/2024/bf_lf_pretas_202404_1_village.xlsx
+++ b/LF/PreTAS/Burkina Faso/2024/bf_lf_pretas_202404_1_village.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\LF\PreTAS\Burkina Faso\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A713C5A-013B-44A5-80D3-FF08345CEAF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E06B564-4AE3-4055-83DF-E3A6D85E3783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="124">
   <si>
     <t>type</t>
   </si>
@@ -392,20 +392,32 @@
     <t>c_couverture_tdm_2024</t>
   </si>
   <si>
-    <t>bf_lf_pretas_202404_1_village_v2</t>
-  </si>
-  <si>
-    <t>(BF - Apr 2024) Pré TAS FL - 1. Formulaire Village V2</t>
-  </si>
-  <si>
     <t>Couverture thérapeutique  TDM FL 2023</t>
+  </si>
+  <si>
+    <t>(BF - Apr 2024) Pré TAS FL - 1. Formulaire Village V2.1</t>
+  </si>
+  <si>
+    <t>bf_lf_pretas_202404_1_village_v2_1</t>
+  </si>
+  <si>
+    <t>EN09</t>
+  </si>
+  <si>
+    <t>EN10</t>
+  </si>
+  <si>
+    <t>EN11</t>
+  </si>
+  <si>
+    <t>EN12</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -473,6 +485,12 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1097,7 +1115,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -1379,7 +1397,7 @@
         <v>116</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D11" s="16" t="s">
         <v>46</v>
@@ -1467,13 +1485,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G43" sqref="G43:G51"/>
+      <selection pane="bottomRight" activeCell="A14" sqref="A14:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.75"/>
@@ -1596,180 +1614,160 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="2" customFormat="1"/>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" t="s">
+        <v>120</v>
+      </c>
+      <c r="C10" t="s">
+        <v>120</v>
+      </c>
+    </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>76</v>
+      <c r="A11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" t="s">
+        <v>121</v>
       </c>
       <c r="C11" t="s">
-        <v>76</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:7" s="2" customFormat="1">
-      <c r="A13" s="5"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B14" t="s">
-        <v>87</v>
-      </c>
-      <c r="C14" t="s">
-        <v>87</v>
-      </c>
-      <c r="D14" t="s">
-        <v>76</v>
-      </c>
-    </row>
+      <c r="A12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" t="s">
+        <v>122</v>
+      </c>
+      <c r="C12" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" t="s">
+        <v>123</v>
+      </c>
+      <c r="C13" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="2" customFormat="1"/>
     <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B15" t="s">
-        <v>99</v>
+        <v>58</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="C15" t="s">
-        <v>99</v>
-      </c>
-      <c r="D15" s="1" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
       <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" s="2" customFormat="1">
       <c r="A17" s="5"/>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A18" t="s">
+    <row r="18" spans="1:7">
+      <c r="A18" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" t="s">
+        <v>87</v>
+      </c>
+      <c r="C18" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" t="s">
+        <v>99</v>
+      </c>
+      <c r="C19" t="s">
+        <v>99</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1"/>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" s="2" customFormat="1">
+      <c r="A21" s="5"/>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A22" t="s">
         <v>70</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B22" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C22" s="6" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" t="s">
-        <v>70</v>
-      </c>
-      <c r="B19" t="s">
-        <v>72</v>
-      </c>
-      <c r="C19" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" s="2" customFormat="1">
-      <c r="A20" s="5"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="B21" t="s">
-        <v>75</v>
-      </c>
-      <c r="C21" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" s="2" customFormat="1">
-      <c r="A22" s="5"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="B23" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="C23" t="s">
-        <v>97</v>
-      </c>
-      <c r="E23" t="s">
-        <v>87</v>
-      </c>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" t="s">
-        <v>60</v>
-      </c>
-      <c r="B24" t="s">
-        <v>94</v>
-      </c>
-      <c r="C24" t="s">
-        <v>94</v>
-      </c>
-      <c r="E24" t="s">
-        <v>87</v>
-      </c>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" s="2" customFormat="1">
+      <c r="A24" s="5"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" t="s">
-        <v>60</v>
+      <c r="A25" s="7" t="s">
+        <v>74</v>
       </c>
       <c r="B25" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="C25" t="s">
-        <v>88</v>
-      </c>
-      <c r="E25" t="s">
-        <v>87</v>
-      </c>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" t="s">
-        <v>60</v>
-      </c>
-      <c r="B26" t="s">
-        <v>92</v>
-      </c>
-      <c r="C26" t="s">
-        <v>92</v>
-      </c>
-      <c r="E26" t="s">
-        <v>87</v>
-      </c>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" s="2" customFormat="1">
+      <c r="A26" s="5"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
         <v>60</v>
       </c>
       <c r="B27" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C27" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E27" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
@@ -1779,13 +1777,13 @@
         <v>60</v>
       </c>
       <c r="B28" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="C28" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="E28" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
@@ -1795,13 +1793,13 @@
         <v>60</v>
       </c>
       <c r="B29" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="C29" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="E29" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
@@ -1811,13 +1809,13 @@
         <v>60</v>
       </c>
       <c r="B30" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="C30" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="E30" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
@@ -1827,10 +1825,10 @@
         <v>60</v>
       </c>
       <c r="B31" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C31" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E31" t="s">
         <v>99</v>
@@ -1838,79 +1836,83 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
     </row>
-    <row r="32" spans="1:7" s="2" customFormat="1"/>
+    <row r="32" spans="1:7">
+      <c r="A32" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" t="s">
+        <v>107</v>
+      </c>
+      <c r="C32" t="s">
+        <v>107</v>
+      </c>
+      <c r="E32" t="s">
+        <v>99</v>
+      </c>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+    </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="1" t="s">
-        <v>114</v>
+      <c r="A33" t="s">
+        <v>60</v>
       </c>
       <c r="B33" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C33" t="s">
-        <v>101</v>
-      </c>
-      <c r="F33" t="s">
-        <v>100</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="E33" t="s">
+        <v>99</v>
+      </c>
+      <c r="F33" s="8"/>
       <c r="G33" s="8"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="1" t="s">
-        <v>114</v>
+      <c r="A34" t="s">
+        <v>60</v>
       </c>
       <c r="B34" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="C34" t="s">
-        <v>97</v>
-      </c>
-      <c r="F34" t="s">
-        <v>97</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="E34" t="s">
+        <v>99</v>
+      </c>
+      <c r="F34" s="8"/>
       <c r="G34" s="8"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="1" t="s">
-        <v>114</v>
+      <c r="A35" t="s">
+        <v>60</v>
       </c>
       <c r="B35" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="C35" t="s">
-        <v>95</v>
-      </c>
-      <c r="F35" t="s">
-        <v>94</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="E35" t="s">
+        <v>99</v>
+      </c>
+      <c r="F35" s="8"/>
       <c r="G35" s="8"/>
     </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B36" t="s">
-        <v>89</v>
-      </c>
-      <c r="C36" t="s">
-        <v>89</v>
-      </c>
-      <c r="F36" t="s">
-        <v>88</v>
-      </c>
-      <c r="G36" s="8"/>
-    </row>
+    <row r="36" spans="1:7" s="2" customFormat="1"/>
     <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
         <v>114</v>
       </c>
       <c r="B37" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C37" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F37" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="G37" s="8"/>
     </row>
@@ -1918,14 +1920,14 @@
       <c r="A38" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>111</v>
+      <c r="B38" t="s">
+        <v>97</v>
       </c>
       <c r="C38" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="F38" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="G38" s="8"/>
     </row>
@@ -1934,13 +1936,13 @@
         <v>114</v>
       </c>
       <c r="B39" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C39" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F39" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="G39" s="8"/>
     </row>
@@ -1949,13 +1951,13 @@
         <v>114</v>
       </c>
       <c r="B40" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="C40" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="F40" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="G40" s="8"/>
     </row>
@@ -1964,87 +1966,91 @@
         <v>114</v>
       </c>
       <c r="B41" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C41" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F41" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G41" s="8"/>
     </row>
-    <row r="42" spans="1:7" s="2" customFormat="1">
-      <c r="A42" s="5"/>
+    <row r="42" spans="1:7">
+      <c r="A42" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C42" t="s">
+        <v>111</v>
+      </c>
+      <c r="F42" t="s">
+        <v>92</v>
+      </c>
+      <c r="G42" s="8"/>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>77</v>
+        <v>114</v>
       </c>
       <c r="B43" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="C43" t="s">
-        <v>90</v>
-      </c>
-      <c r="G43" t="s">
-        <v>89</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="F43" t="s">
+        <v>99</v>
+      </c>
+      <c r="G43" s="8"/>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>77</v>
+        <v>114</v>
       </c>
       <c r="B44" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="C44" t="s">
-        <v>93</v>
-      </c>
-      <c r="G44" t="s">
-        <v>111</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="F44" t="s">
+        <v>109</v>
+      </c>
+      <c r="G44" s="8"/>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>77</v>
+        <v>114</v>
       </c>
       <c r="B45" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="C45" t="s">
-        <v>96</v>
-      </c>
-      <c r="G45" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B46" t="s">
-        <v>98</v>
-      </c>
-      <c r="C46" t="s">
-        <v>98</v>
-      </c>
-      <c r="G46" t="s">
-        <v>97</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="F45" t="s">
+        <v>104</v>
+      </c>
+      <c r="G45" s="8"/>
+    </row>
+    <row r="46" spans="1:7" s="2" customFormat="1">
+      <c r="A46" s="5"/>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B47" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C47" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="G47" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -2052,13 +2058,13 @@
         <v>77</v>
       </c>
       <c r="B48" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="C48" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="G48" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -2066,13 +2072,13 @@
         <v>77</v>
       </c>
       <c r="B49" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="C49" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="G49" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -2080,13 +2086,13 @@
         <v>77</v>
       </c>
       <c r="B50" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="C50" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="G50" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -2094,60 +2100,117 @@
         <v>77</v>
       </c>
       <c r="B51" t="s">
+        <v>102</v>
+      </c>
+      <c r="C51" t="s">
+        <v>102</v>
+      </c>
+      <c r="G51" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B52" t="s">
+        <v>103</v>
+      </c>
+      <c r="C52" t="s">
+        <v>103</v>
+      </c>
+      <c r="G52" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B53" t="s">
+        <v>106</v>
+      </c>
+      <c r="C53" t="s">
+        <v>106</v>
+      </c>
+      <c r="G53" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B54" t="s">
+        <v>108</v>
+      </c>
+      <c r="C54" t="s">
+        <v>108</v>
+      </c>
+      <c r="G54" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B55" t="s">
         <v>110</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C55" t="s">
         <v>110</v>
       </c>
-      <c r="G51" t="s">
+      <c r="G55" t="s">
         <v>107</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G1" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A43:G51">
-    <sortCondition ref="B43:B51"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A47:G55">
+    <sortCondition ref="B47:B55"/>
   </sortState>
-  <conditionalFormatting sqref="B33:B42">
+  <phoneticPr fontId="10" type="noConversion"/>
+  <conditionalFormatting sqref="B37:B46">
     <cfRule type="duplicateValues" dxfId="15" priority="64"/>
     <cfRule type="duplicateValues" dxfId="14" priority="65"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B43:B44 B46:B48 B50:B51">
+  <conditionalFormatting sqref="B47:B48 B50:B52 B54:B55">
     <cfRule type="duplicateValues" dxfId="13" priority="84"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B43:B51">
+  <conditionalFormatting sqref="B47:B55">
     <cfRule type="duplicateValues" dxfId="12" priority="87"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B45:B51">
+  <conditionalFormatting sqref="B49:B55">
     <cfRule type="duplicateValues" dxfId="11" priority="88"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C35">
+  <conditionalFormatting sqref="C39">
     <cfRule type="duplicateValues" dxfId="10" priority="52"/>
     <cfRule type="duplicateValues" dxfId="9" priority="53"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C35:C41">
+  <conditionalFormatting sqref="C39:C45">
     <cfRule type="duplicateValues" dxfId="8" priority="83"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C43:C44 C46:C48 C50:C51">
+  <conditionalFormatting sqref="C47:C48 C50:C52 C54:C55">
     <cfRule type="duplicateValues" dxfId="7" priority="89"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C43:C51">
+  <conditionalFormatting sqref="C47:C55">
     <cfRule type="duplicateValues" dxfId="6" priority="92"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C45:C51">
+  <conditionalFormatting sqref="C49:C55">
     <cfRule type="duplicateValues" dxfId="5" priority="93"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F48">
+  <conditionalFormatting sqref="F52">
     <cfRule type="duplicateValues" dxfId="4" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F51">
+  <conditionalFormatting sqref="F55">
     <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G45">
+  <conditionalFormatting sqref="G49">
     <cfRule type="duplicateValues" dxfId="2" priority="12"/>
     <cfRule type="duplicateValues" dxfId="1" priority="13"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G45:G51">
+  <conditionalFormatting sqref="G49:G55">
     <cfRule type="duplicateValues" dxfId="0" priority="94"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2160,7 +2223,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.75"/>
@@ -2186,7 +2249,7 @@
         <v>118</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>16</v>

--- a/LF/PreTAS/Burkina Faso/2024/bf_lf_pretas_202404_1_village.xlsx
+++ b/LF/PreTAS/Burkina Faso/2024/bf_lf_pretas_202404_1_village.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\LF\PreTAS\Burkina Faso\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E06B564-4AE3-4055-83DF-E3A6D85E3783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77BDBD8C-67FB-4C3E-BEB1-DB8152E4A294}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -1488,10 +1488,10 @@
   <dimension ref="A1:G55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A14" sqref="A14:XFD18"/>
+      <selection pane="bottomRight" activeCell="G47" sqref="G47:G55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.75"/>
@@ -1966,10 +1966,10 @@
         <v>114</v>
       </c>
       <c r="B41" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C41" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F41" t="s">
         <v>107</v>
@@ -2011,10 +2011,10 @@
         <v>114</v>
       </c>
       <c r="B44" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C44" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F44" t="s">
         <v>109</v>
@@ -2026,10 +2026,10 @@
         <v>114</v>
       </c>
       <c r="B45" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C45" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F45" t="s">
         <v>104</v>
@@ -2128,13 +2128,13 @@
         <v>77</v>
       </c>
       <c r="B53" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C53" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G53" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -2142,13 +2142,13 @@
         <v>77</v>
       </c>
       <c r="B54" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C54" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G54" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -2156,13 +2156,13 @@
         <v>77</v>
       </c>
       <c r="B55" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C55" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G55" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -2496,7 +2496,7 @@
         <v>107</v>
       </c>
       <c r="R6" s="12" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="16.5" thickBot="1">
@@ -2542,10 +2542,10 @@
         <v>104</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F8" s="14" t="s">
         <v>91</v>
@@ -2574,10 +2574,10 @@
         <v>107</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F9" s="14" t="s">
         <v>91</v>
@@ -2592,7 +2592,7 @@
         <v>109</v>
       </c>
       <c r="R9" s="12" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="16.5" thickBot="1">
@@ -2606,10 +2606,10 @@
         <v>109</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F10" s="14" t="s">
         <v>91</v>
@@ -2624,7 +2624,7 @@
         <v>104</v>
       </c>
       <c r="R10" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
